--- a/Deliverable 6/Final System Testing report.xlsx
+++ b/Deliverable 6/Final System Testing report.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mo\Documents\GitHub\Pizza\Deliverable 4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12920" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12915" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="Defect_Serverity">Sheet2!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="51">
   <si>
     <t>Date Tested</t>
   </si>
@@ -271,7 +266,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,18 +547,18 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -595,7 +590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -616,7 +611,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -637,7 +632,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -658,7 +653,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -674,16 +669,12 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -704,7 +695,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -720,16 +711,12 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -750,7 +737,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -771,7 +758,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -792,7 +779,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -813,7 +800,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -833,7 +820,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -858,7 +845,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -879,7 +866,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -902,7 +889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
@@ -923,7 +910,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -948,7 +935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
@@ -969,7 +956,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -990,7 +977,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1011,7 +998,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1032,7 +1019,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -1053,7 +1040,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1074,7 +1061,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1095,7 +1082,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -1116,7 +1103,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -1137,7 +1124,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
@@ -1158,7 +1145,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
@@ -1179,7 +1166,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
@@ -1200,7 +1187,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
@@ -1221,7 +1208,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
@@ -1242,7 +1229,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
@@ -1263,7 +1250,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
@@ -1284,7 +1271,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -1305,7 +1292,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -1326,7 +1313,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -1347,7 +1334,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -1368,7 +1355,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>35</v>
       </c>
@@ -1389,7 +1376,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>35</v>
       </c>
@@ -1410,7 +1397,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>36</v>
       </c>
@@ -1431,7 +1418,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>36</v>
       </c>
@@ -1452,7 +1439,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
@@ -1473,7 +1460,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
@@ -1494,7 +1481,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>38</v>
       </c>
@@ -1519,7 +1506,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>38</v>
       </c>
@@ -1544,7 +1531,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>39</v>
       </c>
@@ -1569,7 +1556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>39</v>
       </c>
@@ -1594,7 +1581,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>40</v>
       </c>
@@ -1615,7 +1602,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>40</v>
       </c>
@@ -1640,7 +1627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>41</v>
       </c>
@@ -1661,7 +1648,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>41</v>
       </c>
@@ -1705,7 +1692,7 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/Deliverable 6/Final System Testing report.xlsx
+++ b/Deliverable 6/Final System Testing report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mo\Documents\GitHub\Pizza\Deliverable 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\GitHub\Pizza\Deliverable 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12920" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12924" windowHeight="7308"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="51">
   <si>
     <t>Date Tested</t>
   </si>
@@ -552,21 +552,21 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.90625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="8" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -616,7 +616,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -637,7 +637,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -683,7 +683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -729,7 +729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -849,16 +849,12 @@
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -879,7 +875,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -902,7 +898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
@@ -923,7 +919,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -939,16 +935,12 @@
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
@@ -969,7 +961,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -990,7 +982,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1011,7 +1003,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1032,7 +1024,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -1053,7 +1045,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1074,7 +1066,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1095,7 +1087,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -1116,7 +1108,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -1137,7 +1129,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
@@ -1158,7 +1150,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
@@ -1179,7 +1171,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
@@ -1200,7 +1192,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
@@ -1221,7 +1213,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
@@ -1242,7 +1234,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
@@ -1263,7 +1255,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
@@ -1284,7 +1276,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -1305,7 +1297,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -1326,7 +1318,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -1347,7 +1339,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -1368,7 +1360,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>35</v>
       </c>
@@ -1389,7 +1381,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>35</v>
       </c>
@@ -1410,7 +1402,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>36</v>
       </c>
@@ -1431,7 +1423,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>36</v>
       </c>
@@ -1452,7 +1444,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
@@ -1473,7 +1465,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
@@ -1494,7 +1486,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>38</v>
       </c>
@@ -1519,7 +1511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>38</v>
       </c>
@@ -1544,7 +1536,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>39</v>
       </c>
@@ -1569,7 +1561,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>39</v>
       </c>
@@ -1594,7 +1586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>40</v>
       </c>
@@ -1615,7 +1607,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>40</v>
       </c>
@@ -1640,7 +1632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>41</v>
       </c>
@@ -1661,7 +1653,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>41</v>
       </c>
@@ -1705,24 +1697,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>

--- a/Deliverable 6/Final System Testing report.xlsx
+++ b/Deliverable 6/Final System Testing report.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mo\Documents\GitHub\Pizza\Deliverable 4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12915" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12920" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="Defect_Serverity">Sheet2!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="51">
   <si>
     <t>Date Tested</t>
   </si>
@@ -266,7 +271,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,18 +552,18 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" style="8" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -590,7 +595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -611,7 +616,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -632,7 +637,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -653,7 +658,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -669,12 +674,16 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="I5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -695,7 +704,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -711,12 +720,16 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="I7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -737,7 +750,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -758,7 +771,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -779,7 +792,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -800,7 +813,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -820,7 +833,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -845,7 +858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -866,7 +879,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -889,7 +902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
@@ -910,7 +923,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -935,7 +948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
@@ -956,7 +969,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -977,7 +990,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -998,7 +1011,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1019,7 +1032,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -1040,7 +1053,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1061,7 +1074,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1082,7 +1095,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -1103,7 +1116,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -1124,7 +1137,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
@@ -1145,7 +1158,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
@@ -1166,7 +1179,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
@@ -1187,7 +1200,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
@@ -1208,7 +1221,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
@@ -1229,7 +1242,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
@@ -1250,7 +1263,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
@@ -1271,7 +1284,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -1292,7 +1305,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -1313,7 +1326,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -1334,7 +1347,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -1355,7 +1368,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>35</v>
       </c>
@@ -1376,7 +1389,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1410,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>36</v>
       </c>
@@ -1418,7 +1431,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>36</v>
       </c>
@@ -1439,7 +1452,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
@@ -1460,7 +1473,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
@@ -1481,7 +1494,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>38</v>
       </c>
@@ -1506,7 +1519,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>38</v>
       </c>
@@ -1531,7 +1544,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>39</v>
       </c>
@@ -1556,7 +1569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>39</v>
       </c>
@@ -1581,7 +1594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>40</v>
       </c>
@@ -1602,7 +1615,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>40</v>
       </c>
@@ -1627,7 +1640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>41</v>
       </c>
@@ -1648,7 +1661,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>41</v>
       </c>
@@ -1692,7 +1705,7 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/Deliverable 6/Final System Testing report.xlsx
+++ b/Deliverable 6/Final System Testing report.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\GitHub\Pizza\Deliverable 6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12924" windowHeight="7308"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="50">
   <si>
     <t>Date Tested</t>
   </si>
@@ -160,9 +155,6 @@
   </si>
   <si>
     <t>Zhao Xie</t>
-  </si>
-  <si>
-    <t>small fail, for empty string name</t>
   </si>
   <si>
     <t xml:space="preserve">Shengti Pan </t>
@@ -271,7 +263,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,7 +533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -551,22 +543,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -595,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -616,7 +608,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -637,7 +629,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -658,7 +650,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -674,16 +666,12 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -704,7 +692,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -720,16 +708,12 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -750,7 +734,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -771,7 +755,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -792,7 +776,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -813,7 +797,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -833,7 +817,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -854,7 +838,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -865,7 +849,7 @@
         <v>41969</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -875,7 +859,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -886,19 +870,19 @@
         <v>41969</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
@@ -919,7 +903,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -940,7 +924,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
@@ -961,7 +945,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -982,7 +966,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +987,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1024,7 +1008,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -1045,7 +1029,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1066,7 +1050,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1087,7 +1071,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -1108,7 +1092,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -1129,7 +1113,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
@@ -1150,7 +1134,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
@@ -1161,7 +1145,7 @@
         <v>41969</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
@@ -1171,7 +1155,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
@@ -1182,7 +1166,7 @@
         <v>41969</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
@@ -1192,7 +1176,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
@@ -1203,7 +1187,7 @@
         <v>41969</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -1213,7 +1197,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
@@ -1224,7 +1208,7 @@
         <v>41969</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
@@ -1234,7 +1218,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
@@ -1245,7 +1229,7 @@
         <v>41969</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
@@ -1255,7 +1239,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
@@ -1266,7 +1250,7 @@
         <v>41969</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -1276,7 +1260,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -1287,7 +1271,7 @@
         <v>41969</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
@@ -1297,7 +1281,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -1308,7 +1292,7 @@
         <v>41969</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
@@ -1318,7 +1302,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -1329,7 +1313,7 @@
         <v>41969</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -1339,7 +1323,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -1350,7 +1334,7 @@
         <v>41969</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
@@ -1360,7 +1344,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>35</v>
       </c>
@@ -1371,7 +1355,7 @@
         <v>41969</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
@@ -1381,7 +1365,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +1376,7 @@
         <v>41969</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>8</v>
@@ -1402,7 +1386,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>36</v>
       </c>
@@ -1413,7 +1397,7 @@
         <v>41969</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>8</v>
@@ -1423,7 +1407,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>36</v>
       </c>
@@ -1434,7 +1418,7 @@
         <v>41969</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>8</v>
@@ -1444,7 +1428,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
@@ -1455,7 +1439,7 @@
         <v>41969</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>8</v>
@@ -1465,7 +1449,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
@@ -1476,7 +1460,7 @@
         <v>41969</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
@@ -1486,7 +1470,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>38</v>
       </c>
@@ -1497,10 +1481,10 @@
         <v>41969</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>14</v>
@@ -1508,10 +1492,10 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>38</v>
       </c>
@@ -1522,10 +1506,10 @@
         <v>41969</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>14</v>
@@ -1533,10 +1517,10 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>39</v>
       </c>
@@ -1547,10 +1531,10 @@
         <v>41969</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>14</v>
@@ -1558,10 +1542,10 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>39</v>
       </c>
@@ -1572,10 +1556,10 @@
         <v>41969</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>14</v>
@@ -1583,10 +1567,10 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>40</v>
       </c>
@@ -1597,7 +1581,7 @@
         <v>41969</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
@@ -1607,7 +1591,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>40</v>
       </c>
@@ -1618,10 +1602,10 @@
         <v>41969</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>15</v>
@@ -1629,10 +1613,10 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>41</v>
       </c>
@@ -1643,7 +1627,7 @@
         <v>41969</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
@@ -1653,7 +1637,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>41</v>
       </c>
@@ -1664,10 +1648,10 @@
         <v>41969</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>15</v>
@@ -1675,7 +1659,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1697,7 +1681,7 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/Deliverable 6/Final System Testing report.xlsx
+++ b/Deliverable 6/Final System Testing report.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\GitHub\Pizza\Deliverable 6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12924" windowHeight="7308"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="48">
   <si>
     <t>Date Tested</t>
   </si>
@@ -162,9 +157,6 @@
     <t>Zhao Xie</t>
   </si>
   <si>
-    <t>small fail, for empty string name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shengti Pan </t>
   </si>
   <si>
@@ -174,13 +166,7 @@
     <t>Edward Iskandar</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>feature not working</t>
-  </si>
-  <si>
-    <t>invalid validation</t>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -271,7 +257,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,7 +527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,21 +538,22 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -595,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -616,7 +603,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -637,7 +624,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -658,7 +645,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -674,16 +661,12 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -704,7 +687,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -720,16 +703,12 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -750,7 +729,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -771,7 +750,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -792,7 +771,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -813,7 +792,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -833,7 +812,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -854,7 +833,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -865,7 +844,7 @@
         <v>41969</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -875,7 +854,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -886,19 +865,17 @@
         <v>41969</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
@@ -919,7 +896,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -940,7 +917,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
@@ -961,7 +938,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -982,7 +959,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +980,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1024,7 +1001,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -1045,7 +1022,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1066,7 +1043,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1087,7 +1064,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -1108,7 +1085,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -1129,7 +1106,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
@@ -1150,7 +1127,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
@@ -1161,7 +1138,7 @@
         <v>41969</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
@@ -1171,7 +1148,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
@@ -1182,7 +1159,7 @@
         <v>41969</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
@@ -1192,7 +1169,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
@@ -1203,7 +1180,7 @@
         <v>41969</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -1213,7 +1190,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
@@ -1224,7 +1201,7 @@
         <v>41969</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
@@ -1234,7 +1211,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
@@ -1245,7 +1222,7 @@
         <v>41969</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
@@ -1255,7 +1232,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
@@ -1266,7 +1243,7 @@
         <v>41969</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -1276,7 +1253,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -1287,7 +1264,7 @@
         <v>41969</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
@@ -1297,7 +1274,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -1308,7 +1285,7 @@
         <v>41969</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
@@ -1318,7 +1295,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -1329,7 +1306,7 @@
         <v>41969</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -1339,7 +1316,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -1350,7 +1327,7 @@
         <v>41969</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
@@ -1360,7 +1337,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>35</v>
       </c>
@@ -1371,7 +1348,7 @@
         <v>41969</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
@@ -1381,7 +1358,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +1369,7 @@
         <v>41969</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>8</v>
@@ -1402,7 +1379,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>36</v>
       </c>
@@ -1413,7 +1390,7 @@
         <v>41969</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>8</v>
@@ -1423,7 +1400,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>36</v>
       </c>
@@ -1434,7 +1411,7 @@
         <v>41969</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>8</v>
@@ -1444,7 +1421,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
@@ -1455,7 +1432,7 @@
         <v>41969</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>8</v>
@@ -1465,7 +1442,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
@@ -1476,7 +1453,7 @@
         <v>41969</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
@@ -1486,7 +1463,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>38</v>
       </c>
@@ -1497,21 +1474,17 @@
         <v>41969</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>38</v>
       </c>
@@ -1522,21 +1495,17 @@
         <v>41969</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>39</v>
       </c>
@@ -1547,21 +1516,17 @@
         <v>41969</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>39</v>
       </c>
@@ -1572,21 +1537,17 @@
         <v>41969</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>40</v>
       </c>
@@ -1597,7 +1558,7 @@
         <v>41969</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
@@ -1607,7 +1568,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>40</v>
       </c>
@@ -1618,21 +1579,17 @@
         <v>41969</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>41</v>
       </c>
@@ -1643,7 +1600,7 @@
         <v>41969</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
@@ -1653,7 +1610,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>41</v>
       </c>
@@ -1664,19 +1621,15 @@
         <v>41969</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F51" s="5"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="I51" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1697,7 +1650,7 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
